--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A5E12-EC02-469D-BDA0-ED5606163A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB23A57E-E32D-4434-A294-94F4CE97C0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1130" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="500" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -211,42 +211,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現在の年月から数えて12か月分、年月が降順で表示されるか</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カゾ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
+    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
+    <t>当月を含む過去12か月分、年月が降順で表示されるか</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年月のリンクを押した際、「user」テーブルの「admin_flg」の値が０(一般社員)の場合
+    <t>年月のボタンを押した際、「user」テーブルの「admin_flg」の値が０(一般社員)の場合
 勤務表画面へ遷移する</t>
     <rPh sb="0" eb="2">
       <t>ネンゲツ</t>
@@ -278,7 +281,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年月のリンクを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
+    <t>年月のボタンを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
 社員一覧画面へ遷移する</t>
     <rPh sb="0" eb="2">
       <t>ネンゲツ</t>
@@ -2030,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2075,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2412,6 +2415,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -2424,24 +2445,6 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2938,16 +2941,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2960,14 +2961,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB23A57E-E32D-4434-A294-94F4CE97C0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="500" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="495" windowWidth="11115" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,7 +217,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>当月を含む過去12か月分、年月が降順で表示されるか</t>
+    <t>当月を含む過去12か月分の年月が降順で表示されるか</t>
     <rPh sb="0" eb="1">
       <t>トウ</t>
     </rPh>
@@ -249,54 +248,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年月のボタンを押した際、「user」テーブルの「admin_flg」の値が０(一般社員)の場合
-勤務表画面へ遷移する</t>
+    <t>任意の年月のボタンを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
+社員一覧画面へ遷移する</t>
     <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ネンゲツ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="10" eb="11">
       <t>オ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="13" eb="14">
       <t>サイ</t>
     </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="39" eb="43">
-      <t>イッパンシャイン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>キンムヒョウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センイ</t>
+    <rPh sb="42" eb="45">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>シャインイチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年月のボタンを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
-社員一覧画面へ遷移する</t>
+    <t>任意の年月のボタンを押した際、「user」テーブルの「admin_flg」の値が０(一般ユーザ)の場合
+押下した年月の勤務報告書画面へ遷移する</t>
     <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ネンゲツ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="10" eb="11">
       <t>オ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="13" eb="14">
       <t>サイ</t>
     </rPh>
-    <rPh sb="39" eb="42">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シャインイチラン</t>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -304,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,7 +523,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -587,7 +598,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,7 +678,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +753,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +828,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1093,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,24 +1952,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1981,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1993,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2024,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2028,7 +2039,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2043,12 +2054,12 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -2058,12 +2069,12 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2073,7 +2084,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2088,11 +2099,187 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43810</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2101,7 +2288,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2114,7 +2301,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2127,7 +2314,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2140,7 +2327,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2153,7 +2340,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2166,7 +2353,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2179,7 +2366,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2192,7 +2379,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2205,7 +2392,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2218,7 +2405,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2231,7 +2418,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2244,7 +2431,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2257,7 +2444,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2270,7 +2457,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2283,7 +2470,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2296,7 +2483,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2309,7 +2496,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2322,7 +2509,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2335,7 +2522,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2348,7 +2535,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2361,7 +2548,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2374,7 +2561,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2387,7 +2574,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2400,533 +2587,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7">
-        <v>30</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD950AC-5BFA-4523-AC2A-7AACD5994DEE}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43810</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15">
-        <v>43810</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43810</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15">
-        <v>43810</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7">
-        <v>27</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>30</v>
       </c>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK02001_月別一覧画面.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23422"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11680CE7-4C64-4754-A122-C32E48671CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="495" windowWidth="11115" windowHeight="8865"/>
+    <workbookView xWindow="2880" yWindow="1130" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -29,9 +39,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -43,6 +53,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
@@ -50,15 +70,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>木村靖二</t>
-    <rPh sb="0" eb="2">
-      <t>キムラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニ</t>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月別一覧</t>
+    <rPh sb="0" eb="4">
+      <t>ツキベツイチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -111,9 +132,115 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
+    <t>画面レイアウトが崩れていない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>現在の年月から数えて12か月分、年月が降順で表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月のリンクを押した際、「user」テーブルの「admin_flg」の値が０(一般社員)の場合
+勤務表画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>イッパンシャイン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月のリンクを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
+社員一覧画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>シャインイチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木村靖二</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -122,6 +249,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「ユーザID」は8文字を超える入力はできないこと。</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>木村</t>
     <rPh sb="0" eb="2">
       <t>キムラ</t>
@@ -133,19 +273,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ユーザID」は8文字を超える入力はできないこと。</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインボタン押下時
 「ユーザID」が未入力の場合は、チェックエラーになること。</t>
     <rPh sb="7" eb="9">
@@ -185,138 +312,12 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>高橋</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面レイアウトが崩れていない</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月別一覧</t>
-    <rPh sb="0" eb="4">
-      <t>ツキベツイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当月を含む過去12か月分の年月が降順で表示されるか</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>任意の年月のボタンを押した際、「user」テーブルの「admin_flg」の値が１(管理者)の場合
-社員一覧画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>シャインイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>任意の年月のボタンを押した際、「user」テーブルの「admin_flg」の値が０(一般ユーザ)の場合
-押下した年月の勤務報告書画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="59" eb="64">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -475,6 +476,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,7 +527,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -598,7 +602,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,7 +682,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +757,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,7 +832,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1097,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,15 +1956,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
@@ -1969,138 +1973,522 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.95">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.95">
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
         <v>44123</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7">
         <v>21</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="30">
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -2114,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD950AC-5BFA-4523-AC2A-7AACD5994DEE}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2122,7 +2510,7 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
@@ -2131,125 +2519,125 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.95">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15.95">
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
         <v>43810</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15">
         <v>43810</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15">
         <v>43810</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="15">
         <v>43810</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2257,12 +2645,12 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2270,12 +2658,12 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2283,12 +2671,12 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2296,12 +2684,12 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2309,12 +2697,12 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2322,12 +2710,12 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2335,12 +2723,12 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2348,12 +2736,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2361,12 +2749,12 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2374,12 +2762,12 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2387,12 +2775,12 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2400,12 +2788,12 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2413,12 +2801,12 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2426,12 +2814,12 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2439,12 +2827,12 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2452,12 +2840,12 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2465,12 +2853,12 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2478,12 +2866,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2491,12 +2879,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2504,12 +2892,12 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2517,12 +2905,12 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2530,12 +2918,12 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2543,12 +2931,12 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2556,12 +2944,12 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2569,12 +2957,12 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2582,12 +2970,12 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2595,21 +2983,23 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2622,16 +3012,14 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
